--- a/AULA003.xlsx
+++ b/AULA003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945be9a72e669af4/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4846F79B-FFC9-49E6-B106-BD7E01833614}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD55BB6-8B32-4F5F-8C49-2EA9E389C276}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
     <t>7)</t>
   </si>
   <si>
-    <t>Saldo do segundo dia é igual ao SALDO DO DIA ANTERIOR + CREDITO DO DIA - DEBITO DO DIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centralize o título entre as colunas A e </t>
+  </si>
+  <si>
+    <t>Saldo do dia é igual ao SALDO DO DIA ANTERIOR + CREDITO DO DIA - DEBITO DO DIA</t>
   </si>
 </sst>
 </file>
@@ -230,6 +230,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D00B22D-098D-4BCD-A877-CD32851C241E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1270,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A54D8-5B9A-49DE-9A5F-8CBEE4113CD9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
@@ -1305,7 +1309,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">

--- a/AULA003.xlsx
+++ b/AULA003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945be9a72e669af4/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD55BB6-8B32-4F5F-8C49-2EA9E389C276}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08CE74A-7879-42F8-B9C2-40798A933F67}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Pagamento / Telefone</t>
   </si>
   <si>
-    <t>Emprea D</t>
-  </si>
-  <si>
     <t>Pagto / Com. De Material</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Saldo do dia é igual ao SALDO DO DIA ANTERIOR + CREDITO DO DIA - DEBITO DO DIA</t>
+  </si>
+  <si>
+    <t>Empresa D</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D00B22D-098D-4BCD-A877-CD32851C241E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1138,7 +1138,7 @@
         <v>45513</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -1149,7 +1149,7 @@
         <v>45514</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -1160,7 +1160,7 @@
         <v>45515</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>26</v>
@@ -1171,7 +1171,7 @@
         <v>45516</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>27</v>
@@ -1182,7 +1182,7 @@
         <v>45517</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>28</v>
@@ -1193,7 +1193,7 @@
         <v>45518</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>29</v>
@@ -1204,7 +1204,7 @@
         <v>45519</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1215,7 +1215,7 @@
         <v>45520</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>31</v>
@@ -1226,7 +1226,7 @@
         <v>45521</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>32</v>
@@ -1237,7 +1237,7 @@
         <v>45522</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>33</v>
@@ -1248,7 +1248,7 @@
         <v>45523</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>34</v>
@@ -1259,7 +1259,7 @@
         <v>45524</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>10254</v>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A54D8-5B9A-49DE-9A5F-8CBEE4113CD9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1285,63 +1285,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/AULA003.xlsx
+++ b/AULA003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945be9a72e669af4/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08CE74A-7879-42F8-B9C2-40798A933F67}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E459D1DA-1A79-41E3-87E8-642507EADB54}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Formate a planilha livremente usando pelo menos 5 recursos de formatação</t>
   </si>
   <si>
-    <t>Renomeie a planilha para CONTROLE DE SALDO</t>
-  </si>
-  <si>
     <t>Salve com o nome de AULA003</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Empresa D</t>
+  </si>
+  <si>
+    <t>Renomeie a planilha para RELAÇÃO DOS MIVIMENTOS DO MÊS</t>
   </si>
 </sst>
 </file>
@@ -230,10 +230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D00B22D-098D-4BCD-A877-CD32851C241E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1138,7 +1136,7 @@
         <v>45513</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -1275,7 +1273,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,12 +1283,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -1298,23 +1296,23 @@
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
@@ -1322,7 +1320,7 @@
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -1330,18 +1328,18 @@
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/AULA003.xlsx
+++ b/AULA003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945be9a72e669af4/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E459D1DA-1A79-41E3-87E8-642507EADB54}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{CD2B55BC-B96C-4564-A48D-5D7348384104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E114D046-888E-4C52-8E9A-F41DF3B8E3D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E8C4AB7-B711-4AC7-80E1-5E00D9F5802B}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Empresa D</t>
   </si>
   <si>
-    <t>Renomeie a planilha para RELAÇÃO DOS MIVIMENTOS DO MÊS</t>
+    <t>Renomeie a planilha para RELAÇÃO DOS MOVIMENTOS DO MÊS</t>
   </si>
 </sst>
 </file>
@@ -551,9 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D00B22D-098D-4BCD-A877-CD32851C241E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
